--- a/public/uploads/invoice/invoice-5.xlsx
+++ b/public/uploads/invoice/invoice-5.xlsx
@@ -50,7 +50,7 @@
     <t>GDOT CALL 015, 0017698</t>
   </si>
   <si>
-    <t>11/11/2025</t>
+    <t>11/14/2025</t>
   </si>
   <si>
     <t>1589 Willingham Dr</t>
@@ -2123,8 +2123,12 @@
         <v>1044.5</v>
       </c>
       <c r="P16" s="37"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="107"/>
+      <c r="Q16" s="105">
+        <v>20.89</v>
+      </c>
+      <c r="R16" s="107">
+        <v>1044.5</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2179,8 +2183,12 @@
         <v>23647.0</v>
       </c>
       <c r="P17" s="37"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="107"/>
+      <c r="Q17" s="105">
+        <v>221.0</v>
+      </c>
+      <c r="R17" s="107">
+        <v>23647.0</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2235,8 +2243,12 @@
         <v>2702.0</v>
       </c>
       <c r="P18" s="37"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="107"/>
+      <c r="Q18" s="105">
+        <v>7.0</v>
+      </c>
+      <c r="R18" s="107">
+        <v>2702.0</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2286,7 +2298,9 @@
       <c r="Q19" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="108"/>
+      <c r="R19" s="108">
+        <v>27393.5</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
